--- a/V2 BETA/BOM/V2 XY Gantry BOM 00.xlsx
+++ b/V2 BETA/BOM/V2 XY Gantry BOM 00.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/V2 BETA/BOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2DB9060-5257-4E56-A492-CDC4674B696D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B428155B-BA3F-4799-9C7C-559E792D9714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="16440" xr2:uid="{47C38121-7D6E-49A7-9044-D3D315F08A85}"/>
+    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="16440" xr2:uid="{476AAC7C-314E-4A5D-B294-B66B66E0DECF}"/>
   </bookViews>
   <sheets>
     <sheet name="V2 XY Gantry BOM 00" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>Part name</t>
   </si>
@@ -94,6 +94,9 @@
     <t>GT2 Pulley 20T 11mm</t>
   </si>
   <si>
+    <t>M5 Nut Hammer Nut</t>
+  </si>
+  <si>
     <t>M3 Nut Lock Nut</t>
   </si>
   <si>
@@ -112,19 +115,13 @@
     <t>M3x08 BH ISO 7380</t>
   </si>
   <si>
+    <t>X Axis 2020 AL Tube 410</t>
+  </si>
+  <si>
     <t>MGN9-H CARRAGE</t>
   </si>
   <si>
     <t>MGN 9H 400</t>
-  </si>
-  <si>
-    <t>M5 Nut Hammer Nut</t>
-  </si>
-  <si>
-    <t>410mm</t>
-  </si>
-  <si>
-    <t>X Axis 2020 AL Tube 410</t>
   </si>
 </sst>
 </file>
@@ -984,12 +981,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3164262-3585-40B6-8CE4-2876069F9E4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F8262AD-9E42-416B-B4AA-E75916C61029}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1011,7 +1006,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -1043,7 +1038,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -1078,7 +1073,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -1097,7 +1092,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B12">
         <v>8</v>
@@ -1121,7 +1116,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -1145,10 +1140,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B18">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1164,7 +1159,7 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1196,7 +1191,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -1223,7 +1218,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -1231,7 +1226,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -1250,13 +1245,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B30">
         <v>1</v>
-      </c>
-      <c r="C30" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
